--- a/public/upload/Refurb laptop.xlsx
+++ b/public/upload/Refurb laptop.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>Id</t>
   </si>
@@ -92,7 +92,7 @@
     <t>Laptop</t>
   </si>
   <si>
-    <t>SP047752</t>
+    <t>SP047496</t>
   </si>
   <si>
     <t>11th Gen</t>
@@ -101,13 +101,10 @@
     <t>Hp</t>
   </si>
   <si>
-    <t>3F9U0PA#ABG</t>
-  </si>
-  <si>
-    <t>HP EliteBook X360 830 G8</t>
-  </si>
-  <si>
-    <t>E830 X360 G8</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Omen 16</t>
   </si>
   <si>
     <t>Intel Core i7</t>
@@ -116,16 +113,103 @@
     <t>512 SSD</t>
   </si>
   <si>
-    <t>-</t>
+    <t>16.1"</t>
+  </si>
+  <si>
+    <t>B &amp; O / 4 GB (RTX) / New Model</t>
+  </si>
+  <si>
+    <t>Jackss</t>
+  </si>
+  <si>
+    <t>2022-06-21 09:25:16</t>
+  </si>
+  <si>
+    <t>2022-06-24 00:00:00</t>
+  </si>
+  <si>
+    <t>SP048262</t>
+  </si>
+  <si>
+    <t>10th Gen</t>
+  </si>
+  <si>
+    <t>ZBook Fury 15 G7</t>
   </si>
   <si>
     <t>15.6"</t>
   </si>
   <si>
-    <t>Touch Screen (B &amp; O) / New Model</t>
-  </si>
-  <si>
-    <t>2022-06-21 09:25:16</t>
+    <t>B &amp; O / 4 GB / New Model</t>
+  </si>
+  <si>
+    <t>SP047758</t>
+  </si>
+  <si>
+    <t>Ryzen 5</t>
+  </si>
+  <si>
+    <t>52U14EC#AB1</t>
+  </si>
+  <si>
+    <t>HP EliteBook 835 G8</t>
+  </si>
+  <si>
+    <t>E835 G8</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 5</t>
+  </si>
+  <si>
+    <t>13.3"</t>
+  </si>
+  <si>
+    <t>B &amp; O / New Model</t>
+  </si>
+  <si>
+    <t>Jacks</t>
+  </si>
+  <si>
+    <t>2022-06-25 13:26:07</t>
+  </si>
+  <si>
+    <t>2022-07-25 00:00:00</t>
+  </si>
+  <si>
+    <t>SP048014</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>45P46ES#ABZ</t>
+  </si>
+  <si>
+    <t>HP ProBook 250 G7</t>
+  </si>
+  <si>
+    <t>Omen 15X</t>
+  </si>
+  <si>
+    <t>CDC</t>
+  </si>
+  <si>
+    <t>256 SSD</t>
+  </si>
+  <si>
+    <t>SP048270</t>
+  </si>
+  <si>
+    <t>Zhan 66 Pro 14 G4</t>
+  </si>
+  <si>
+    <t>Intel Core i5</t>
+  </si>
+  <si>
+    <t>14.0"</t>
+  </si>
+  <si>
+    <t>New Model</t>
   </si>
 </sst>
 </file>
@@ -461,7 +545,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -542,7 +626,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>48140034</v>
+        <v>48139778</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -567,37 +651,283 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
         <v>30</v>
       </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
       <c r="L2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M2">
         <v>16384</v>
       </c>
       <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>33</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2"/>
+      <c r="S2" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2"/>
-      <c r="S2"/>
       <c r="T2"/>
       <c r="U2"/>
       <c r="V2" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
         <v>36</v>
       </c>
-      <c r="W2"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3">
+        <v>48140544</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>32768</v>
+      </c>
+      <c r="N3">
+        <v>512</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3"/>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4">
+        <v>48143360</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4"/>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>8192</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4"/>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+      <c r="W4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>48143616</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>8192</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5" t="s">
+        <v>51</v>
+      </c>
+      <c r="W5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>48143872</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>8192</v>
+      </c>
+      <c r="N6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6"/>
+      <c r="S6" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
